--- a/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 900-POS-POS9.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 900-POS-POS9.xlsx
@@ -19,37 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="128">
-  <si>
-    <t>Signal_Value_1</t>
-  </si>
-  <si>
-    <t>Signal_Value_2</t>
-  </si>
-  <si>
-    <t>Signal_Value_3</t>
-  </si>
-  <si>
-    <t>Signal_Value_4</t>
-  </si>
-  <si>
-    <t>Signal_Value_5</t>
-  </si>
-  <si>
-    <t>Signal_Value_6</t>
-  </si>
-  <si>
-    <t>Signal_Value_7</t>
-  </si>
-  <si>
-    <t>Signal_Value_8</t>
-  </si>
-  <si>
-    <t>Signal_Value_9</t>
-  </si>
-  <si>
-    <t>Signal_Value_10</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="137">
   <si>
     <t>Signal_Value_11</t>
   </si>
@@ -324,6 +294,66 @@
     <t>Signal_Value_101</t>
   </si>
   <si>
+    <t>Signal_Value_102</t>
+  </si>
+  <si>
+    <t>Signal_Value_103</t>
+  </si>
+  <si>
+    <t>Signal_Value_104</t>
+  </si>
+  <si>
+    <t>Signal_Value_105</t>
+  </si>
+  <si>
+    <t>Signal_Value_106</t>
+  </si>
+  <si>
+    <t>Signal_Value_107</t>
+  </si>
+  <si>
+    <t>Signal_Value_108</t>
+  </si>
+  <si>
+    <t>Signal_Value_109</t>
+  </si>
+  <si>
+    <t>Signal_Value_110</t>
+  </si>
+  <si>
+    <t>Signal_Value_111</t>
+  </si>
+  <si>
+    <t>Signal_Value_112</t>
+  </si>
+  <si>
+    <t>Signal_Value_113</t>
+  </si>
+  <si>
+    <t>Signal_Value_114</t>
+  </si>
+  <si>
+    <t>Signal_Value_115</t>
+  </si>
+  <si>
+    <t>Signal_Value_116</t>
+  </si>
+  <si>
+    <t>Signal_Value_117</t>
+  </si>
+  <si>
+    <t>Signal_Value_118</t>
+  </si>
+  <si>
+    <t>Signal_Value_119</t>
+  </si>
+  <si>
+    <t>Signal_Value_120</t>
+  </si>
+  <si>
+    <t>Signal_Value_121</t>
+  </si>
+  <si>
     <t>Segment_ID</t>
   </si>
   <si>
@@ -396,10 +426,7 @@
     <t>Tread</t>
   </si>
   <si>
-    <t>11R22.5</t>
-  </si>
-  <si>
-    <t>702ZE-i</t>
+    <t>275-80R22.5</t>
   </si>
   <si>
     <t>Empty</t>
@@ -760,15 +787,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CX6"/>
+  <dimension ref="A1:DH6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:102">
+    <row r="1" spans="1:112">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1073,10 +1100,40 @@
       <c r="CX1" s="1" t="s">
         <v>100</v>
       </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
-    <row r="2" spans="1:102">
+    <row r="2" spans="1:112">
       <c r="A2" s="1" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1085,91 +1142,91 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.02322946984280898</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.05488250565906715</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.03507580292067086</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0003384262259019497</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.03241070111800456</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.001593789996417444</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.005853374740095965</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.05293319840302604</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.03940683215139791</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.01053404898516725</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.02245702410725115</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.004544791022525219</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.01859382718353556</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.04651941024286073</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.04100513884879776</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.1095123915678477</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.02494428880002418</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.03367231577989838</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.1138091670613723</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>0.03318446979698646</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>0.001968147450479581</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>0.01240104653522497</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>0.04306198334433266</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.01642384038042154</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>0.1049728764945551</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>0.06674689244834807</v>
       </c>
       <c r="AG2">
         <v>0</v>
@@ -1178,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>0.04992423889298057</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -1190,100 +1247,100 @@
         <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.0218740674045077</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.005479262230826253</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.004497974336521599</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.03428531308340215</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.01542775720009021</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.004238540240111698</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.01137285418447074</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.004279468158954282</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.006428467821039607</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.004681768582410701</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.003401316299202183</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.0208348478398027</v>
+        <v>0</v>
       </c>
       <c r="AY2">
         <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.0318718906276725</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.06753356868600854</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.07697271910191959</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.06298935902919624</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.03922913355697449</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.0005247897281930133</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.02918573598982469</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.08261817780571216</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.09942529567647494</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.1065157163217809</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.05282435381762152</v>
+        <v>0</v>
       </c>
       <c r="BK2">
         <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.03014494863808823</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.07357743862437201</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.05620712995474093</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.02799922859459122</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.01328040142196681</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.008262171321564392</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.004036303721958126</v>
+        <v>0</v>
       </c>
       <c r="BS2">
         <v>0</v>
@@ -1381,10 +1438,40 @@
       <c r="CX2">
         <v>0</v>
       </c>
+      <c r="CY2">
+        <v>0</v>
+      </c>
+      <c r="CZ2">
+        <v>0</v>
+      </c>
+      <c r="DA2">
+        <v>0</v>
+      </c>
+      <c r="DB2">
+        <v>0</v>
+      </c>
+      <c r="DC2">
+        <v>0</v>
+      </c>
+      <c r="DD2">
+        <v>0</v>
+      </c>
+      <c r="DE2">
+        <v>0</v>
+      </c>
+      <c r="DF2">
+        <v>0</v>
+      </c>
+      <c r="DG2">
+        <v>0</v>
+      </c>
+      <c r="DH2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:102">
+    <row r="3" spans="1:112">
       <c r="A3" s="1" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1594,105 +1681,135 @@
         <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.003350212660399551</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.004059540851829506</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.002945382383662237</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.001496092224280143</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.0005396634640223761</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>1.605125503663152E-05</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.0001137185122212596</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.0005870059734800477</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.001335991664573068</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.002479469666637</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.005929398546642472</v>
+        <v>0.05309098023270074</v>
       </c>
       <c r="CD3">
-        <v>0</v>
+        <v>0.02024166023648166</v>
       </c>
       <c r="CE3">
-        <v>0.004322115251373369</v>
+        <v>0.1028627564584716</v>
       </c>
       <c r="CF3">
-        <v>0.01822616706040501</v>
+        <v>0.005399007565587825</v>
       </c>
       <c r="CG3">
-        <v>0.02411972085338918</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.02215911155172571</v>
+        <v>0.02780175020234984</v>
       </c>
       <c r="CI3">
-        <v>0.0343596744743183</v>
+        <v>0.02362666214344606</v>
       </c>
       <c r="CJ3">
-        <v>0.001432859748133829</v>
+        <v>5.113722874250396E-05</v>
       </c>
       <c r="CK3">
-        <v>0.007375804459397053</v>
+        <v>0.1143280513149115</v>
       </c>
       <c r="CL3">
-        <v>0.01554989436960545</v>
+        <v>0.00365779602071728</v>
       </c>
       <c r="CM3">
-        <v>0.03792569142839241</v>
+        <v>0.04081710274529786</v>
       </c>
       <c r="CN3">
-        <v>0.1259456437559878</v>
+        <v>0.01676188946751098</v>
       </c>
       <c r="CO3">
-        <v>0.0274264301822801</v>
+        <v>0.007143683454228821</v>
       </c>
       <c r="CP3">
-        <v>0.00135650601803168</v>
+        <v>0.0294890726211994</v>
       </c>
       <c r="CQ3">
-        <v>0.02490756439982775</v>
+        <v>0.02131198662601835</v>
       </c>
       <c r="CR3">
-        <v>0.1018508761797249</v>
+        <v>0.05653204217453329</v>
       </c>
       <c r="CS3">
-        <v>0.1471830200949998</v>
+        <v>0.0323708600151152</v>
       </c>
       <c r="CT3">
-        <v>0.08184062402595646</v>
+        <v>0.03383357548162235</v>
       </c>
       <c r="CU3">
-        <v>0.01709278222775342</v>
+        <v>0.008050989813276734</v>
       </c>
       <c r="CV3">
-        <v>0.01149653209128021</v>
+        <v>0.09662250475011396</v>
       </c>
       <c r="CW3">
-        <v>0.1102631254853011</v>
+        <v>0.0924587902876441</v>
       </c>
       <c r="CX3">
-        <v>0.1623133291393321</v>
+        <v>0.0005837217721905215</v>
+      </c>
+      <c r="CY3">
+        <v>0.06249153099689087</v>
+      </c>
+      <c r="CZ3">
+        <v>0.02686793813712685</v>
+      </c>
+      <c r="DA3">
+        <v>0.001912590195365544</v>
+      </c>
+      <c r="DB3">
+        <v>0.009217987696803242</v>
+      </c>
+      <c r="DC3">
+        <v>0.01540071092007861</v>
+      </c>
+      <c r="DD3">
+        <v>0.01678487089317217</v>
+      </c>
+      <c r="DE3">
+        <v>0.05005012791412183</v>
+      </c>
+      <c r="DF3">
+        <v>0.001801212478158715</v>
+      </c>
+      <c r="DG3">
+        <v>0</v>
+      </c>
+      <c r="DH3">
+        <v>0.02843701015612174</v>
       </c>
     </row>
-    <row r="4" spans="1:102">
+    <row r="4" spans="1:112">
       <c r="A4" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1785,115 +1902,115 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.01593128599556215</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.02644977635702211</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.03783261181324517</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.04044207089547924</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.02145761077892638</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.004386704207929215</v>
+        <v>0.0422414459332105</v>
       </c>
       <c r="AL4">
-        <v>8.221314170936022E-05</v>
+        <v>0.007208197037373315</v>
       </c>
       <c r="AM4">
-        <v>0.008641520203219514</v>
+        <v>0.06778558411267993</v>
       </c>
       <c r="AN4">
-        <v>0.01793397201343788</v>
+        <v>0.007219258278955936</v>
       </c>
       <c r="AO4">
-        <v>0.0139620775051721</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.005451957602457309</v>
+        <v>0.004239971775830662</v>
       </c>
       <c r="AQ4">
-        <v>0.003638866752367809</v>
+        <v>0.04433737172931374</v>
       </c>
       <c r="AR4">
-        <v>0.007826212109138768</v>
+        <v>0.0005652662284167789</v>
       </c>
       <c r="AS4">
-        <v>0.02156956443589814</v>
+        <v>0.1352715923783935</v>
       </c>
       <c r="AT4">
-        <v>0.03136738700773773</v>
+        <v>0.008755916470224109</v>
       </c>
       <c r="AU4">
-        <v>0.02700120903541155</v>
+        <v>0.06352662161208722</v>
       </c>
       <c r="AV4">
-        <v>0.01136661201966067</v>
+        <v>4.334750150149988E-06</v>
       </c>
       <c r="AW4">
-        <v>0.0005199740938772236</v>
+        <v>0.02336452404657242</v>
       </c>
       <c r="AX4">
-        <v>0.004983883430356256</v>
+        <v>0.1407384563342172</v>
       </c>
       <c r="AY4">
-        <v>0.02428817747912128</v>
+        <v>9.54018719293463E-05</v>
       </c>
       <c r="AZ4">
-        <v>0.04818408077657678</v>
+        <v>0.02237817039567197</v>
       </c>
       <c r="BA4">
-        <v>0.06370665739841679</v>
+        <v>0.005169804880815072</v>
       </c>
       <c r="BB4">
-        <v>0.04276763348028551</v>
+        <v>0.01825589471001288</v>
       </c>
       <c r="BC4">
-        <v>0.0122583412338216</v>
+        <v>0.01906727275866548</v>
       </c>
       <c r="BD4">
-        <v>0.001970099416319347</v>
+        <v>0.1444447952393555</v>
       </c>
       <c r="BE4">
-        <v>0.003236000673776853</v>
+        <v>0.04829642775643108</v>
       </c>
       <c r="BF4">
-        <v>0.04294088501584042</v>
+        <v>0.00571732243202328</v>
       </c>
       <c r="BG4">
-        <v>0.1106392226466773</v>
+        <v>0.02749496174592245</v>
       </c>
       <c r="BH4">
-        <v>0.1398127302940421</v>
+        <v>0.00527680013353581</v>
       </c>
       <c r="BI4">
-        <v>0.1138073716424977</v>
+        <v>0.01713472794382979</v>
       </c>
       <c r="BJ4">
-        <v>0.06735290331518315</v>
+        <v>0.03514280751431463</v>
       </c>
       <c r="BK4">
-        <v>0.0281903872288326</v>
+        <v>0.0002354489181675455</v>
       </c>
       <c r="BL4">
-        <v>0</v>
+        <v>0.003763974511771689</v>
       </c>
       <c r="BM4">
-        <v>0</v>
+        <v>0.08439556175253508</v>
       </c>
       <c r="BN4">
-        <v>0</v>
+        <v>0.002337027554206289</v>
       </c>
       <c r="BO4">
-        <v>0</v>
+        <v>0.002414246820245058</v>
       </c>
       <c r="BP4">
-        <v>0</v>
+        <v>0.01312081237314157</v>
       </c>
       <c r="BQ4">
         <v>0</v>
@@ -1997,10 +2114,40 @@
       <c r="CX4">
         <v>0</v>
       </c>
+      <c r="CY4">
+        <v>0</v>
+      </c>
+      <c r="CZ4">
+        <v>0</v>
+      </c>
+      <c r="DA4">
+        <v>0</v>
+      </c>
+      <c r="DB4">
+        <v>0</v>
+      </c>
+      <c r="DC4">
+        <v>0</v>
+      </c>
+      <c r="DD4">
+        <v>0</v>
+      </c>
+      <c r="DE4">
+        <v>0</v>
+      </c>
+      <c r="DF4">
+        <v>0</v>
+      </c>
+      <c r="DG4">
+        <v>0</v>
+      </c>
+      <c r="DH4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:102">
+    <row r="5" spans="1:112">
       <c r="A5" s="1" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2027,16 +2174,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.04752096495015877</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.06993260089090964</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.06387666501053833</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.01303988251261479</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -2048,13 +2195,13 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.0005342227989802836</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.005027284974308416</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.01133181441297463</v>
+        <v>0</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -2063,151 +2210,151 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0.01230294368720011</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.013779100255574</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.004654660101543085</v>
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.01723724777388366</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.05239572384309295</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.09175711053959613</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.1078876792574409</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.1080204793791524</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.07309705320283709</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.02840269092176187</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.001440751656004797</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.005695217592136942</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.0295854970430744</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.05092926962008043</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.05623958458353021</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.04980071342308431</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.03585317358022399</v>
+        <v>0.04844363245028286</v>
       </c>
       <c r="AN5">
-        <v>0.02636305037000351</v>
+        <v>0.01913349507611625</v>
       </c>
       <c r="AO5">
-        <v>0.02329461761929452</v>
+        <v>0.01469480095232962</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>0.01454561116609182</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>0.007381778587255462</v>
       </c>
       <c r="AR5">
-        <v>0</v>
+        <v>0.006934858660853447</v>
       </c>
       <c r="AS5">
-        <v>0</v>
+        <v>0.04155059282825807</v>
       </c>
       <c r="AT5">
-        <v>0</v>
+        <v>0.1369907518402953</v>
       </c>
       <c r="AU5">
-        <v>0</v>
+        <v>0.01278650790794182</v>
       </c>
       <c r="AV5">
-        <v>0</v>
+        <v>0.02218507378350658</v>
       </c>
       <c r="AW5">
-        <v>0</v>
+        <v>0.03221373442833113</v>
       </c>
       <c r="AX5">
-        <v>0</v>
+        <v>0.06357576174486977</v>
       </c>
       <c r="AY5">
-        <v>0</v>
+        <v>0.01382592574807515</v>
       </c>
       <c r="AZ5">
-        <v>0</v>
+        <v>0.02286048695174248</v>
       </c>
       <c r="BA5">
         <v>0</v>
       </c>
       <c r="BB5">
-        <v>0</v>
+        <v>0.04293988252407228</v>
       </c>
       <c r="BC5">
-        <v>0</v>
+        <v>0.007187764070401191</v>
       </c>
       <c r="BD5">
-        <v>0</v>
+        <v>0.08384289743395651</v>
       </c>
       <c r="BE5">
-        <v>0</v>
+        <v>0.1207432777989832</v>
       </c>
       <c r="BF5">
-        <v>0</v>
+        <v>0.003892596206110067</v>
       </c>
       <c r="BG5">
-        <v>0</v>
+        <v>0.03422385931459875</v>
       </c>
       <c r="BH5">
-        <v>0</v>
+        <v>0.02083967459103762</v>
       </c>
       <c r="BI5">
-        <v>0</v>
+        <v>0.01062054849495951</v>
       </c>
       <c r="BJ5">
-        <v>0</v>
+        <v>0.02370460281645473</v>
       </c>
       <c r="BK5">
-        <v>0</v>
+        <v>0.009472009273868313</v>
       </c>
       <c r="BL5">
-        <v>0</v>
+        <v>0.0007348865361278717</v>
       </c>
       <c r="BM5">
-        <v>0</v>
+        <v>0.03298968128670258</v>
       </c>
       <c r="BN5">
-        <v>0</v>
+        <v>0.07613220043266092</v>
       </c>
       <c r="BO5">
         <v>0</v>
       </c>
       <c r="BP5">
-        <v>0</v>
+        <v>0.03856992307571438</v>
       </c>
       <c r="BQ5">
-        <v>0</v>
+        <v>0.02670448999109967</v>
       </c>
       <c r="BR5">
-        <v>0</v>
+        <v>0.01027869402730279</v>
       </c>
       <c r="BS5">
         <v>0</v>
@@ -2305,10 +2452,40 @@
       <c r="CX5">
         <v>0</v>
       </c>
+      <c r="CY5">
+        <v>0</v>
+      </c>
+      <c r="CZ5">
+        <v>0</v>
+      </c>
+      <c r="DA5">
+        <v>0</v>
+      </c>
+      <c r="DB5">
+        <v>0</v>
+      </c>
+      <c r="DC5">
+        <v>0</v>
+      </c>
+      <c r="DD5">
+        <v>0</v>
+      </c>
+      <c r="DE5">
+        <v>0</v>
+      </c>
+      <c r="DF5">
+        <v>0</v>
+      </c>
+      <c r="DG5">
+        <v>0</v>
+      </c>
+      <c r="DH5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:102">
+    <row r="6" spans="1:112">
       <c r="A6" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2317,34 +2494,34 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03617296400840198</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.04862121923093577</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05611925570583734</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0630430461731399</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.06681135996837011</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.06450574041311299</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.05642041981358178</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.03874000173082608</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0209773201868709</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.007656158823290106</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -2356,43 +2533,43 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.002735215602733613</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.01375999743691577</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.03162180288734156</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.05144251235399192</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.06602748755712221</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.07205139132152721</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.06761099787968639</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.05945552807597149</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.04785038778813832</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.03496108207965369</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.02209451359264583</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.01175414051657192</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.003051766684568095</v>
+        <v>0</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -2401,16 +2578,16 @@
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.0009621895126494921</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.00797090039412018</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.01818047086004118</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.02940212940195426</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -2455,97 +2632,97 @@
         <v>0</v>
       </c>
       <c r="AX6">
-        <v>0</v>
+        <v>0.01484504063796787</v>
       </c>
       <c r="AY6">
-        <v>0</v>
+        <v>0.0519272425490884</v>
       </c>
       <c r="AZ6">
-        <v>0</v>
+        <v>0.07683837704703785</v>
       </c>
       <c r="BA6">
-        <v>0</v>
+        <v>0.0511815792450154</v>
       </c>
       <c r="BB6">
-        <v>0</v>
+        <v>0.006268638496732081</v>
       </c>
       <c r="BC6">
-        <v>0</v>
+        <v>0.004578623478799403</v>
       </c>
       <c r="BD6">
-        <v>0</v>
+        <v>0.06320745097883296</v>
       </c>
       <c r="BE6">
-        <v>0</v>
+        <v>0.002337462040146209</v>
       </c>
       <c r="BF6">
-        <v>0</v>
+        <v>0.0006607406282353004</v>
       </c>
       <c r="BG6">
-        <v>0</v>
+        <v>0.1270364694070214</v>
       </c>
       <c r="BH6">
-        <v>0</v>
+        <v>0.005667505244800998</v>
       </c>
       <c r="BI6">
-        <v>0</v>
+        <v>0.01931946519853597</v>
       </c>
       <c r="BJ6">
-        <v>0</v>
+        <v>4.26379194966847E-05</v>
       </c>
       <c r="BK6">
-        <v>0</v>
+        <v>0.04892186019847541</v>
       </c>
       <c r="BL6">
-        <v>0</v>
+        <v>0.005787644720341357</v>
       </c>
       <c r="BM6">
-        <v>0</v>
+        <v>0.0425132322577907</v>
       </c>
       <c r="BN6">
-        <v>0</v>
+        <v>0.03113469283380479</v>
       </c>
       <c r="BO6">
-        <v>0</v>
+        <v>0.07362902656310481</v>
       </c>
       <c r="BP6">
-        <v>0</v>
+        <v>0.01268966522121618</v>
       </c>
       <c r="BQ6">
-        <v>0</v>
+        <v>0.05015913252315876</v>
       </c>
       <c r="BR6">
-        <v>0</v>
+        <v>0.114277203178386</v>
       </c>
       <c r="BS6">
-        <v>0</v>
+        <v>0.03134796596290821</v>
       </c>
       <c r="BT6">
-        <v>0</v>
+        <v>0.01440452277268848</v>
       </c>
       <c r="BU6">
-        <v>0</v>
+        <v>0.02589590799968219</v>
       </c>
       <c r="BV6">
-        <v>0</v>
+        <v>0.0003167888932527612</v>
       </c>
       <c r="BW6">
-        <v>0</v>
+        <v>0.003506182179774509</v>
       </c>
       <c r="BX6">
-        <v>0</v>
+        <v>0.0397203582870686</v>
       </c>
       <c r="BY6">
-        <v>0</v>
+        <v>0.006796786118774128</v>
       </c>
       <c r="BZ6">
-        <v>0</v>
+        <v>0.04686112036335396</v>
       </c>
       <c r="CA6">
-        <v>0</v>
+        <v>0.02795767844103855</v>
       </c>
       <c r="CB6">
-        <v>0</v>
+        <v>0.0001689986134700617</v>
       </c>
       <c r="CC6">
         <v>0</v>
@@ -2611,6 +2788,36 @@
         <v>0</v>
       </c>
       <c r="CX6">
+        <v>0</v>
+      </c>
+      <c r="CY6">
+        <v>0</v>
+      </c>
+      <c r="CZ6">
+        <v>0</v>
+      </c>
+      <c r="DA6">
+        <v>0</v>
+      </c>
+      <c r="DB6">
+        <v>0</v>
+      </c>
+      <c r="DC6">
+        <v>0</v>
+      </c>
+      <c r="DD6">
+        <v>0</v>
+      </c>
+      <c r="DE6">
+        <v>0</v>
+      </c>
+      <c r="DF6">
+        <v>0</v>
+      </c>
+      <c r="DG6">
+        <v>0</v>
+      </c>
+      <c r="DH6">
         <v>0</v>
       </c>
     </row>
@@ -2621,15 +2828,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CX6"/>
+  <dimension ref="A1:DH6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:102">
+    <row r="1" spans="1:112">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2934,10 +3141,40 @@
       <c r="CX1" s="1" t="s">
         <v>100</v>
       </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
-    <row r="2" spans="1:102">
+    <row r="2" spans="1:112">
       <c r="A2" s="1" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2946,202 +3183,202 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.02322946984280898</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.07811197550187614</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.113187778422547</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.113526204648449</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.113526204648449</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.1459369057664535</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.147530695762871</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.1533840705029669</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.206317268905993</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.206317268905993</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2457241010573909</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.2562581500425581</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.2787151741498093</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.2832599651723345</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.3018537923558701</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.3483732025987308</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.3893783414475285</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.4988907330153762</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.5238350218154004</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.5575073375952988</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.6713165046566711</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>0.6713165046566711</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>0.7045009744536576</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>0.7064691219041371</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>0.7188701684393621</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>0.7619321517836948</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.7783559921641163</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>0.8833288686586714</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>0.9500757611070195</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>0.9500757611070195</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.9500757611070195</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM2">
-        <v>0.0218740674045077</v>
+        <v>1</v>
       </c>
       <c r="AN2">
-        <v>0.02735332963533395</v>
+        <v>1</v>
       </c>
       <c r="AO2">
-        <v>0.03185130397185554</v>
+        <v>1</v>
       </c>
       <c r="AP2">
-        <v>0.0661366170552577</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
-        <v>0.0815643742553479</v>
+        <v>1</v>
       </c>
       <c r="AR2">
-        <v>0.0858029144954596</v>
+        <v>1</v>
       </c>
       <c r="AS2">
-        <v>0.09717576867993034</v>
+        <v>1</v>
       </c>
       <c r="AT2">
-        <v>0.1014552368388846</v>
+        <v>1</v>
       </c>
       <c r="AU2">
-        <v>0.1078837046599242</v>
+        <v>1</v>
       </c>
       <c r="AV2">
-        <v>0.1125654732423349</v>
+        <v>1</v>
       </c>
       <c r="AW2">
-        <v>0.1159667895415371</v>
+        <v>1</v>
       </c>
       <c r="AX2">
-        <v>0.1368016373813398</v>
+        <v>1</v>
       </c>
       <c r="AY2">
-        <v>0.1368016373813398</v>
+        <v>1</v>
       </c>
       <c r="AZ2">
-        <v>0.1686735280090123</v>
+        <v>1</v>
       </c>
       <c r="BA2">
-        <v>0.2362070966950209</v>
+        <v>1</v>
       </c>
       <c r="BB2">
-        <v>0.3131798157969404</v>
+        <v>1</v>
       </c>
       <c r="BC2">
-        <v>0.3761691748261367</v>
+        <v>1</v>
       </c>
       <c r="BD2">
-        <v>0.4153983083831111</v>
+        <v>1</v>
       </c>
       <c r="BE2">
-        <v>0.4159230981113042</v>
+        <v>1</v>
       </c>
       <c r="BF2">
-        <v>0.4451088341011289</v>
+        <v>1</v>
       </c>
       <c r="BG2">
-        <v>0.527727011906841</v>
+        <v>1</v>
       </c>
       <c r="BH2">
-        <v>0.627152307583316</v>
+        <v>1</v>
       </c>
       <c r="BI2">
-        <v>0.7336680239050969</v>
+        <v>1</v>
       </c>
       <c r="BJ2">
-        <v>0.7864923777227184</v>
+        <v>1</v>
       </c>
       <c r="BK2">
-        <v>0.7864923777227184</v>
+        <v>1</v>
       </c>
       <c r="BL2">
-        <v>0.8166373263608067</v>
+        <v>1</v>
       </c>
       <c r="BM2">
-        <v>0.8902147649851787</v>
+        <v>1</v>
       </c>
       <c r="BN2">
-        <v>0.9464218949399197</v>
+        <v>1</v>
       </c>
       <c r="BO2">
-        <v>0.9744211235345109</v>
+        <v>1</v>
       </c>
       <c r="BP2">
-        <v>0.9877015249564778</v>
+        <v>1</v>
       </c>
       <c r="BQ2">
-        <v>0.9959636962780422</v>
+        <v>1</v>
       </c>
       <c r="BR2">
         <v>1</v>
@@ -3242,10 +3479,40 @@
       <c r="CX2">
         <v>1</v>
       </c>
+      <c r="CY2">
+        <v>1</v>
+      </c>
+      <c r="CZ2">
+        <v>1</v>
+      </c>
+      <c r="DA2">
+        <v>1</v>
+      </c>
+      <c r="DB2">
+        <v>1</v>
+      </c>
+      <c r="DC2">
+        <v>1</v>
+      </c>
+      <c r="DD2">
+        <v>1</v>
+      </c>
+      <c r="DE2">
+        <v>1</v>
+      </c>
+      <c r="DF2">
+        <v>1</v>
+      </c>
+      <c r="DG2">
+        <v>1</v>
+      </c>
+      <c r="DH2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:102">
+    <row r="3" spans="1:112">
       <c r="A3" s="1" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3455,105 +3722,135 @@
         <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.003350212660399551</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.007409753512229056</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.01035513589589129</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.01185122812017144</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.01239089158419381</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.01240694283923044</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.0125206613514517</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.01310766732493175</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.01444365898950482</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.01692312865614182</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.02285252720278429</v>
+        <v>0.05309098023270074</v>
       </c>
       <c r="CD3">
-        <v>0.02285252720278429</v>
+        <v>0.07333264046918239</v>
       </c>
       <c r="CE3">
-        <v>0.02717464245415766</v>
+        <v>0.176195396927654</v>
       </c>
       <c r="CF3">
-        <v>0.04540080951456267</v>
+        <v>0.1815944044932418</v>
       </c>
       <c r="CG3">
-        <v>0.06952053036795185</v>
+        <v>0.1815944044932418</v>
       </c>
       <c r="CH3">
-        <v>0.09167964191967756</v>
+        <v>0.2093961546955917</v>
       </c>
       <c r="CI3">
-        <v>0.1260393163939958</v>
+        <v>0.2330228168390377</v>
       </c>
       <c r="CJ3">
-        <v>0.1274721761421297</v>
+        <v>0.2330739540677802</v>
       </c>
       <c r="CK3">
-        <v>0.1348479806015268</v>
+        <v>0.3474020053826918</v>
       </c>
       <c r="CL3">
-        <v>0.1503978749711322</v>
+        <v>0.3510598014034091</v>
       </c>
       <c r="CM3">
-        <v>0.1883235663995246</v>
+        <v>0.391876904148707</v>
       </c>
       <c r="CN3">
-        <v>0.3142692101555123</v>
+        <v>0.408638793616218</v>
       </c>
       <c r="CO3">
-        <v>0.3416956403377924</v>
+        <v>0.4157824770704468</v>
       </c>
       <c r="CP3">
-        <v>0.3430521463558241</v>
+        <v>0.4452715496916462</v>
       </c>
       <c r="CQ3">
-        <v>0.3679597107556519</v>
+        <v>0.4665835363176645</v>
       </c>
       <c r="CR3">
-        <v>0.4698105869353768</v>
+        <v>0.5231155784921978</v>
       </c>
       <c r="CS3">
-        <v>0.6169936070303765</v>
+        <v>0.5554864385073131</v>
       </c>
       <c r="CT3">
-        <v>0.698834231056333</v>
+        <v>0.5893200139889354</v>
       </c>
       <c r="CU3">
-        <v>0.7159270132840865</v>
+        <v>0.5973710038022122</v>
       </c>
       <c r="CV3">
-        <v>0.7274235453753667</v>
+        <v>0.6939935085523261</v>
       </c>
       <c r="CW3">
-        <v>0.8376866708606678</v>
+        <v>0.7864522988399703</v>
       </c>
       <c r="CX3">
+        <v>0.7870360206121608</v>
+      </c>
+      <c r="CY3">
+        <v>0.8495275516090517</v>
+      </c>
+      <c r="CZ3">
+        <v>0.8763954897461785</v>
+      </c>
+      <c r="DA3">
+        <v>0.878308079941544</v>
+      </c>
+      <c r="DB3">
+        <v>0.8875260676383473</v>
+      </c>
+      <c r="DC3">
+        <v>0.9029267785584258</v>
+      </c>
+      <c r="DD3">
+        <v>0.919711649451598</v>
+      </c>
+      <c r="DE3">
+        <v>0.9697617773657199</v>
+      </c>
+      <c r="DF3">
+        <v>0.9715629898438786</v>
+      </c>
+      <c r="DG3">
+        <v>0.9715629898438786</v>
+      </c>
+      <c r="DH3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:102">
+    <row r="4" spans="1:112">
       <c r="A4" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3646,112 +3943,112 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.01593128599556215</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.04238106235258426</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.08021367416582945</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.1206557450613087</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.1421133558402351</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.1465000600481643</v>
+        <v>0.0422414459332105</v>
       </c>
       <c r="AL4">
-        <v>0.1465822731898737</v>
+        <v>0.04944964297058381</v>
       </c>
       <c r="AM4">
-        <v>0.1552237933930932</v>
+        <v>0.1172352270832637</v>
       </c>
       <c r="AN4">
-        <v>0.1731577654065311</v>
+        <v>0.1244544853622197</v>
       </c>
       <c r="AO4">
-        <v>0.1871198429117031</v>
+        <v>0.1244544853622197</v>
       </c>
       <c r="AP4">
-        <v>0.1925718005141605</v>
+        <v>0.1286944571380503</v>
       </c>
       <c r="AQ4">
-        <v>0.1962106672665282</v>
+        <v>0.1730318288673641</v>
       </c>
       <c r="AR4">
-        <v>0.204036879375667</v>
+        <v>0.1735970950957808</v>
       </c>
       <c r="AS4">
-        <v>0.2256064438115652</v>
+        <v>0.3088686874741743</v>
       </c>
       <c r="AT4">
-        <v>0.2569738308193029</v>
+        <v>0.3176246039443984</v>
       </c>
       <c r="AU4">
-        <v>0.2839750398547145</v>
+        <v>0.3811512255564856</v>
       </c>
       <c r="AV4">
-        <v>0.2953416518743751</v>
+        <v>0.3811555603066358</v>
       </c>
       <c r="AW4">
-        <v>0.2958616259682523</v>
+        <v>0.4045200843532082</v>
       </c>
       <c r="AX4">
-        <v>0.3008455093986086</v>
+        <v>0.5452585406874254</v>
       </c>
       <c r="AY4">
-        <v>0.3251336868777299</v>
+        <v>0.5453539425593548</v>
       </c>
       <c r="AZ4">
-        <v>0.3733177676543066</v>
+        <v>0.5677321129550268</v>
       </c>
       <c r="BA4">
-        <v>0.4370244250527234</v>
+        <v>0.5729019178358419</v>
       </c>
       <c r="BB4">
-        <v>0.4797920585330089</v>
+        <v>0.5911578125458548</v>
       </c>
       <c r="BC4">
-        <v>0.4920503997668305</v>
+        <v>0.6102250853045202</v>
       </c>
       <c r="BD4">
-        <v>0.4940204991831499</v>
+        <v>0.7546698805438757</v>
       </c>
       <c r="BE4">
-        <v>0.4972564998569267</v>
+        <v>0.8029663083003068</v>
       </c>
       <c r="BF4">
-        <v>0.5401973848727671</v>
+        <v>0.8086836307323301</v>
       </c>
       <c r="BG4">
-        <v>0.6508366075194444</v>
+        <v>0.8361785924782525</v>
       </c>
       <c r="BH4">
-        <v>0.7906493378134865</v>
+        <v>0.8414553926117884</v>
       </c>
       <c r="BI4">
-        <v>0.9044567094559841</v>
+        <v>0.8585901205556181</v>
       </c>
       <c r="BJ4">
-        <v>0.9718096127711673</v>
+        <v>0.8937329280699328</v>
       </c>
       <c r="BK4">
-        <v>0.9999999999999999</v>
+        <v>0.8939683769881003</v>
       </c>
       <c r="BL4">
-        <v>0.9999999999999999</v>
+        <v>0.897732351499872</v>
       </c>
       <c r="BM4">
-        <v>0.9999999999999999</v>
+        <v>0.982127913252407</v>
       </c>
       <c r="BN4">
-        <v>0.9999999999999999</v>
+        <v>0.9844649408066133</v>
       </c>
       <c r="BO4">
-        <v>0.9999999999999999</v>
+        <v>0.9868791876268583</v>
       </c>
       <c r="BP4">
         <v>0.9999999999999999</v>
@@ -3858,10 +4155,40 @@
       <c r="CX4">
         <v>0.9999999999999999</v>
       </c>
+      <c r="CY4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CZ4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DA4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DB4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DC4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DD4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DE4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DF4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DG4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DH4">
+        <v>0.9999999999999999</v>
+      </c>
     </row>
-    <row r="5" spans="1:102">
+    <row r="5" spans="1:112">
       <c r="A5" s="1" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3888,288 +4215,318 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.04752096495015877</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1174535658410684</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1813302308516067</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1943701133642215</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.1943701133642215</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.1943701133642215</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.1943701133642215</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.1949043361632018</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.1999316211375102</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.2112634355504848</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.2112634355504848</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.2112634355504848</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.2235663792376849</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.2373454794932589</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.242000139594802</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.242000139594802</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.2592373873686857</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.3116331112117786</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.4033902217513747</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.5112779010088156</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.619298380387968</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.6923954335908051</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.720798124512567</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.7222388761685717</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.7279340937607087</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.7575195908037832</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.8084488604238635</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.8646884450073937</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.9144891584304781</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.9503423320107021</v>
+        <v>0.04844363245028286</v>
       </c>
       <c r="AN5">
-        <v>0.9767053823807056</v>
+        <v>0.06757712752639911</v>
       </c>
       <c r="AO5">
-        <v>1</v>
+        <v>0.08227192847872873</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>0.09681753964482055</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>0.104199318232076</v>
       </c>
       <c r="AR5">
-        <v>1</v>
+        <v>0.1111341768929295</v>
       </c>
       <c r="AS5">
-        <v>1</v>
+        <v>0.1526847697211875</v>
       </c>
       <c r="AT5">
-        <v>1</v>
+        <v>0.2896755215614828</v>
       </c>
       <c r="AU5">
-        <v>1</v>
+        <v>0.3024620294694246</v>
       </c>
       <c r="AV5">
-        <v>1</v>
+        <v>0.3246471032529312</v>
       </c>
       <c r="AW5">
-        <v>1</v>
+        <v>0.3568608376812624</v>
       </c>
       <c r="AX5">
-        <v>1</v>
+        <v>0.4204365994261322</v>
       </c>
       <c r="AY5">
-        <v>1</v>
+        <v>0.4342625251742073</v>
       </c>
       <c r="AZ5">
-        <v>1</v>
+        <v>0.4571230121259498</v>
       </c>
       <c r="BA5">
-        <v>1</v>
+        <v>0.4571230121259498</v>
       </c>
       <c r="BB5">
-        <v>1</v>
+        <v>0.5000628946500221</v>
       </c>
       <c r="BC5">
-        <v>1</v>
+        <v>0.5072506587204233</v>
       </c>
       <c r="BD5">
-        <v>1</v>
+        <v>0.5910935561543798</v>
       </c>
       <c r="BE5">
-        <v>1</v>
+        <v>0.7118368339533629</v>
       </c>
       <c r="BF5">
-        <v>1</v>
+        <v>0.715729430159473</v>
       </c>
       <c r="BG5">
-        <v>1</v>
+        <v>0.7499532894740717</v>
       </c>
       <c r="BH5">
-        <v>1</v>
+        <v>0.7707929640651093</v>
       </c>
       <c r="BI5">
-        <v>1</v>
+        <v>0.7814135125600689</v>
       </c>
       <c r="BJ5">
-        <v>1</v>
+        <v>0.8051181153765236</v>
       </c>
       <c r="BK5">
-        <v>1</v>
+        <v>0.8145901246503918</v>
       </c>
       <c r="BL5">
-        <v>1</v>
+        <v>0.8153250111865197</v>
       </c>
       <c r="BM5">
-        <v>1</v>
+        <v>0.8483146924732222</v>
       </c>
       <c r="BN5">
-        <v>1</v>
+        <v>0.9244468929058831</v>
       </c>
       <c r="BO5">
-        <v>1</v>
+        <v>0.9244468929058831</v>
       </c>
       <c r="BP5">
-        <v>1</v>
+        <v>0.9630168159815975</v>
       </c>
       <c r="BQ5">
-        <v>1</v>
+        <v>0.9897213059726971</v>
       </c>
       <c r="BR5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BS5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BT5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BU5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BV5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BW5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BX5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BY5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BZ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CA5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CB5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CC5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CD5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CE5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CF5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CG5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CH5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CI5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CJ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CK5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CL5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CM5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CN5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CO5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CP5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CQ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CR5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CS5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CT5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CU5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CV5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CW5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CX5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CY5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CZ5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DA5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DB5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DC5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DD5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DE5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DF5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DG5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DH5">
+        <v>0.9999999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:102">
+    <row r="6" spans="1:112">
       <c r="A6" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4178,232 +4535,232 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03617296400840198</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.08479418323933774</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1409134389451751</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.203956485118315</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.2707678450866851</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3352735854997981</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3916940053133799</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.430434007044206</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4514113272310769</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.459067486054367</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.459067486054367</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.459067486054367</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.459067486054367</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.4618027016571006</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.4755626990940164</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.5071845019813579</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.5586270143353498</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.624654501892472</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.6967058932139991</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.7643168910936855</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.8237724191696569</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.8716228069577953</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.9065838890374489</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.9286784026300947</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.9404325431466667</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.9434843098312348</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.9434843098312348</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.9434843098312348</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.9444464993438842</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.9524173997380044</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.9705978705980456</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.9999999999999999</v>
+        <v>0.01484504063796787</v>
       </c>
       <c r="AY6">
-        <v>0.9999999999999999</v>
+        <v>0.06677228318705627</v>
       </c>
       <c r="AZ6">
-        <v>0.9999999999999999</v>
+        <v>0.1436106602340941</v>
       </c>
       <c r="BA6">
-        <v>0.9999999999999999</v>
+        <v>0.1947922394791095</v>
       </c>
       <c r="BB6">
-        <v>0.9999999999999999</v>
+        <v>0.2010608779758416</v>
       </c>
       <c r="BC6">
-        <v>0.9999999999999999</v>
+        <v>0.205639501454641</v>
       </c>
       <c r="BD6">
-        <v>0.9999999999999999</v>
+        <v>0.268846952433474</v>
       </c>
       <c r="BE6">
-        <v>0.9999999999999999</v>
+        <v>0.2711844144736202</v>
       </c>
       <c r="BF6">
-        <v>0.9999999999999999</v>
+        <v>0.2718451551018555</v>
       </c>
       <c r="BG6">
-        <v>0.9999999999999999</v>
+        <v>0.398881624508877</v>
       </c>
       <c r="BH6">
-        <v>0.9999999999999999</v>
+        <v>0.404549129753678</v>
       </c>
       <c r="BI6">
-        <v>0.9999999999999999</v>
+        <v>0.423868594952214</v>
       </c>
       <c r="BJ6">
-        <v>0.9999999999999999</v>
+        <v>0.4239112328717106</v>
       </c>
       <c r="BK6">
-        <v>0.9999999999999999</v>
+        <v>0.472833093070186</v>
       </c>
       <c r="BL6">
-        <v>0.9999999999999999</v>
+        <v>0.4786207377905274</v>
       </c>
       <c r="BM6">
-        <v>0.9999999999999999</v>
+        <v>0.5211339700483181</v>
       </c>
       <c r="BN6">
-        <v>0.9999999999999999</v>
+        <v>0.5522686628821228</v>
       </c>
       <c r="BO6">
-        <v>0.9999999999999999</v>
+        <v>0.6258976894452276</v>
       </c>
       <c r="BP6">
-        <v>0.9999999999999999</v>
+        <v>0.6385873546664438</v>
       </c>
       <c r="BQ6">
-        <v>0.9999999999999999</v>
+        <v>0.6887464871896025</v>
       </c>
       <c r="BR6">
-        <v>0.9999999999999999</v>
+        <v>0.8030236903679885</v>
       </c>
       <c r="BS6">
-        <v>0.9999999999999999</v>
+        <v>0.8343716563308967</v>
       </c>
       <c r="BT6">
-        <v>0.9999999999999999</v>
+        <v>0.8487761791035852</v>
       </c>
       <c r="BU6">
-        <v>0.9999999999999999</v>
+        <v>0.8746720871032674</v>
       </c>
       <c r="BV6">
-        <v>0.9999999999999999</v>
+        <v>0.8749888759965201</v>
       </c>
       <c r="BW6">
-        <v>0.9999999999999999</v>
+        <v>0.8784950581762946</v>
       </c>
       <c r="BX6">
-        <v>0.9999999999999999</v>
+        <v>0.9182154164633631</v>
       </c>
       <c r="BY6">
-        <v>0.9999999999999999</v>
+        <v>0.9250122025821372</v>
       </c>
       <c r="BZ6">
-        <v>0.9999999999999999</v>
+        <v>0.9718733229454912</v>
       </c>
       <c r="CA6">
-        <v>0.9999999999999999</v>
+        <v>0.9998310013865298</v>
       </c>
       <c r="CB6">
         <v>0.9999999999999999</v>
@@ -4472,6 +4829,36 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="CX6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CY6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CZ6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DA6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DB6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DC6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DD6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DE6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DF6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DG6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DH6">
         <v>0.9999999999999999</v>
       </c>
     </row>
@@ -4490,302 +4877,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>0.0218740674045077</v>
+        <v>0.113187778422547</v>
       </c>
       <c r="F2">
-        <v>0.527727011906841</v>
+        <v>0.5238350218154004</v>
       </c>
       <c r="G2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H2">
         <v>900</v>
       </c>
       <c r="I2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="J2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="K2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="L2">
-        <v>324</v>
+        <v>108</v>
       </c>
       <c r="M2">
         <v>900</v>
       </c>
       <c r="N2" t="s">
-        <v>125</v>
-      </c>
-      <c r="O2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="P2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D3">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E3">
-        <v>0.01035513589589129</v>
+        <v>0.176195396927654</v>
       </c>
       <c r="F3">
-        <v>0.6169936070303765</v>
+        <v>0.5231155784921978</v>
       </c>
       <c r="G3">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>900</v>
       </c>
       <c r="I3" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="J3" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="K3" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="L3">
-        <v>324</v>
+        <v>108</v>
       </c>
       <c r="M3">
         <v>900</v>
       </c>
       <c r="N3" t="s">
-        <v>125</v>
-      </c>
-      <c r="O3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="P3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E4">
-        <v>0.01593128599556215</v>
+        <v>0.1172352270832637</v>
       </c>
       <c r="F4">
-        <v>0.5401973848727671</v>
+        <v>0.5452585406874254</v>
       </c>
       <c r="G4">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="H4">
         <v>900</v>
       </c>
       <c r="I4" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="J4" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="K4" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="L4">
-        <v>324</v>
+        <v>108</v>
       </c>
       <c r="M4">
         <v>900</v>
       </c>
       <c r="N4" t="s">
-        <v>125</v>
-      </c>
-      <c r="O4" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="P4" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="E5">
-        <v>0.04752096495015877</v>
+        <v>0.08227192847872873</v>
       </c>
       <c r="F5">
-        <v>0.5112779010088156</v>
+        <v>0.5000628946500221</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H5">
         <v>900</v>
       </c>
       <c r="I5" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="J5" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="K5" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="L5">
-        <v>324</v>
+        <v>108</v>
       </c>
       <c r="M5">
         <v>900</v>
       </c>
       <c r="N5" t="s">
-        <v>125</v>
-      </c>
-      <c r="O5" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="P5" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="E6">
-        <v>0.03617296400840198</v>
+        <v>0.1436106602340941</v>
       </c>
       <c r="F6">
-        <v>0.5071845019813579</v>
+        <v>0.5211339700483181</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H6">
         <v>900</v>
       </c>
       <c r="I6" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="J6" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="K6" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="L6">
-        <v>324</v>
+        <v>108</v>
       </c>
       <c r="M6">
         <v>900</v>
       </c>
       <c r="N6" t="s">
-        <v>125</v>
-      </c>
-      <c r="O6" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="P6" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -4803,302 +5175,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>0.0218740674045077</v>
+        <v>0.113187778422547</v>
       </c>
       <c r="F2">
-        <v>0.7336680239050969</v>
+        <v>0.7045009744536576</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H2">
         <v>900</v>
       </c>
       <c r="I2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="J2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="K2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="L2">
-        <v>324</v>
+        <v>108</v>
       </c>
       <c r="M2">
         <v>900</v>
       </c>
       <c r="N2" t="s">
-        <v>125</v>
-      </c>
-      <c r="O2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="P2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D3">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E3">
-        <v>0.01035513589589129</v>
+        <v>0.176195396927654</v>
       </c>
       <c r="F3">
-        <v>0.7159270132840865</v>
+        <v>0.7864522988399703</v>
       </c>
       <c r="G3">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <v>900</v>
       </c>
       <c r="I3" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="J3" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="K3" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="L3">
-        <v>324</v>
+        <v>108</v>
       </c>
       <c r="M3">
         <v>900</v>
       </c>
       <c r="N3" t="s">
-        <v>125</v>
-      </c>
-      <c r="O3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="P3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E4">
-        <v>0.01593128599556215</v>
+        <v>0.1172352270832637</v>
       </c>
       <c r="F4">
-        <v>0.7906493378134865</v>
+        <v>0.7546698805438757</v>
       </c>
       <c r="G4">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>900</v>
       </c>
       <c r="I4" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="J4" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="K4" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="L4">
-        <v>324</v>
+        <v>108</v>
       </c>
       <c r="M4">
         <v>900</v>
       </c>
       <c r="N4" t="s">
-        <v>125</v>
-      </c>
-      <c r="O4" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="P4" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="E5">
-        <v>0.04752096495015877</v>
+        <v>0.08227192847872873</v>
       </c>
       <c r="F5">
-        <v>0.720798124512567</v>
+        <v>0.7118368339533629</v>
       </c>
       <c r="G5">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H5">
         <v>900</v>
       </c>
       <c r="I5" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="J5" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="K5" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="L5">
-        <v>324</v>
+        <v>108</v>
       </c>
       <c r="M5">
         <v>900</v>
       </c>
       <c r="N5" t="s">
-        <v>125</v>
-      </c>
-      <c r="O5" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="P5" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="E6">
-        <v>0.03617296400840198</v>
+        <v>0.1436106602340941</v>
       </c>
       <c r="F6">
-        <v>0.7643168910936855</v>
+        <v>0.8030236903679885</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H6">
         <v>900</v>
       </c>
       <c r="I6" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="J6" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="K6" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="L6">
-        <v>324</v>
+        <v>108</v>
       </c>
       <c r="M6">
         <v>900</v>
       </c>
       <c r="N6" t="s">
-        <v>125</v>
-      </c>
-      <c r="O6" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="P6" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -5116,72 +5473,72 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="E2">
-        <v>0.0218740674045077</v>
+        <v>0.113187778422547</v>
       </c>
       <c r="F2">
-        <v>0.8166373263608067</v>
+        <v>0.8833288686586714</v>
       </c>
       <c r="G2">
         <v>25</v>
@@ -5190,228 +5547,213 @@
         <v>900</v>
       </c>
       <c r="I2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="J2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="K2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="L2">
-        <v>324</v>
+        <v>108</v>
       </c>
       <c r="M2">
         <v>900</v>
       </c>
       <c r="N2" t="s">
-        <v>125</v>
-      </c>
-      <c r="O2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="P2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E3">
-        <v>0.01035513589589129</v>
+        <v>0.176195396927654</v>
       </c>
       <c r="F3">
-        <v>0.8376866708606678</v>
+        <v>0.8495275516090517</v>
       </c>
       <c r="G3">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H3">
         <v>900</v>
       </c>
       <c r="I3" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="J3" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="K3" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="L3">
-        <v>324</v>
+        <v>108</v>
       </c>
       <c r="M3">
         <v>900</v>
       </c>
       <c r="N3" t="s">
-        <v>125</v>
-      </c>
-      <c r="O3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="P3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E4">
-        <v>0.01593128599556215</v>
+        <v>0.1172352270832637</v>
       </c>
       <c r="F4">
-        <v>0.9044567094559841</v>
+        <v>0.8029663083003068</v>
       </c>
       <c r="G4">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H4">
         <v>900</v>
       </c>
       <c r="I4" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="J4" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="K4" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="L4">
-        <v>324</v>
+        <v>108</v>
       </c>
       <c r="M4">
         <v>900</v>
       </c>
       <c r="N4" t="s">
-        <v>125</v>
-      </c>
-      <c r="O4" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="P4" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D5">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="E5">
-        <v>0.04752096495015877</v>
+        <v>0.08227192847872873</v>
       </c>
       <c r="F5">
-        <v>0.8084488604238635</v>
+        <v>0.8051181153765236</v>
       </c>
       <c r="G5">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H5">
         <v>900</v>
       </c>
       <c r="I5" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="J5" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="K5" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="L5">
-        <v>324</v>
+        <v>108</v>
       </c>
       <c r="M5">
         <v>900</v>
       </c>
       <c r="N5" t="s">
-        <v>125</v>
-      </c>
-      <c r="O5" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="P5" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="E6">
-        <v>0.03617296400840198</v>
+        <v>0.1436106602340941</v>
       </c>
       <c r="F6">
-        <v>0.8237724191696569</v>
+        <v>0.8030236903679885</v>
       </c>
       <c r="G6">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H6">
         <v>900</v>
       </c>
       <c r="I6" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="J6" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="K6" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="L6">
-        <v>324</v>
+        <v>108</v>
       </c>
       <c r="M6">
         <v>900</v>
       </c>
       <c r="N6" t="s">
-        <v>125</v>
-      </c>
-      <c r="O6" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="P6" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -5429,302 +5771,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="E2">
-        <v>0.0218740674045077</v>
+        <v>0.113187778422547</v>
       </c>
       <c r="F2">
-        <v>0.9464218949399197</v>
+        <v>0.9500757611070195</v>
       </c>
       <c r="G2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2">
         <v>900</v>
       </c>
       <c r="I2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="J2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="K2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="L2">
-        <v>324</v>
+        <v>108</v>
       </c>
       <c r="M2">
         <v>900</v>
       </c>
       <c r="N2" t="s">
-        <v>125</v>
-      </c>
-      <c r="O2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="P2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D3">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E3">
-        <v>0.01035513589589129</v>
+        <v>0.176195396927654</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.9029267785584258</v>
       </c>
       <c r="G3">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H3">
         <v>900</v>
       </c>
       <c r="I3" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="J3" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="K3" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="L3">
-        <v>324</v>
+        <v>108</v>
       </c>
       <c r="M3">
         <v>900</v>
       </c>
       <c r="N3" t="s">
-        <v>125</v>
-      </c>
-      <c r="O3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="P3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E4">
-        <v>0.01593128599556215</v>
+        <v>0.1172352270832637</v>
       </c>
       <c r="F4">
-        <v>0.9044567094559841</v>
+        <v>0.982127913252407</v>
       </c>
       <c r="G4">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H4">
         <v>900</v>
       </c>
       <c r="I4" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="J4" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="K4" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="L4">
-        <v>324</v>
+        <v>108</v>
       </c>
       <c r="M4">
         <v>900</v>
       </c>
       <c r="N4" t="s">
-        <v>125</v>
-      </c>
-      <c r="O4" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="P4" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D5">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="E5">
-        <v>0.04752096495015877</v>
+        <v>0.08227192847872873</v>
       </c>
       <c r="F5">
-        <v>0.9144891584304781</v>
+        <v>0.9244468929058831</v>
       </c>
       <c r="G5">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H5">
         <v>900</v>
       </c>
       <c r="I5" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="J5" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="K5" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="L5">
-        <v>324</v>
+        <v>108</v>
       </c>
       <c r="M5">
         <v>900</v>
       </c>
       <c r="N5" t="s">
-        <v>125</v>
-      </c>
-      <c r="O5" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="P5" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="E6">
-        <v>0.03617296400840198</v>
+        <v>0.1436106602340941</v>
       </c>
       <c r="F6">
-        <v>0.9065838890374489</v>
+        <v>0.9182154164633631</v>
       </c>
       <c r="G6">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H6">
         <v>900</v>
       </c>
       <c r="I6" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="J6" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="K6" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="L6">
-        <v>324</v>
+        <v>108</v>
       </c>
       <c r="M6">
         <v>900</v>
       </c>
       <c r="N6" t="s">
-        <v>125</v>
-      </c>
-      <c r="O6" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="P6" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
